--- a/resultsPSCC/L1/results_A_IEEE_118_syst_DCA_l1_35_100_10.0_2.0.xlsx
+++ b/resultsPSCC/L1/results_A_IEEE_118_syst_DCA_l1_35_100_10.0_2.0.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">force</t>
   </si>
   <si>
-    <t xml:space="preserve">IEEE254</t>
+    <t xml:space="preserve">IEEE54</t>
   </si>
 </sst>
 </file>
@@ -177,8 +177,8 @@
   </sheetPr>
   <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A113" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A102" activeCellId="0" sqref="A102:I201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,16 +226,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>47.3588480949402</v>
+        <v>35.994943857193</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1613944.48450647</v>
+        <v>1606567.65528645</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>1607831.05984487</v>
+        <v>1615689.20647643</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>1606827.94237059</v>
+        <v>1614411.14810099</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2</v>
@@ -255,16 +255,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>61.3335390090942</v>
+        <v>41.6540479660034</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1607878.89540237</v>
+        <v>1604447.95358685</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1613079.20887859</v>
+        <v>1610682.22379067</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>1611533.16361846</v>
+        <v>1609149.96278812</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2</v>
@@ -284,16 +284,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>48.9004929065704</v>
+        <v>62.4858920574188</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1610310.38940303</v>
+        <v>1605554.04405045</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>1609863.24686866</v>
+        <v>1613294.39764368</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>1608258.2424635</v>
+        <v>1612110.83940915</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2</v>
@@ -313,16 +313,16 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>50.861184835434</v>
+        <v>53.5392959117889</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1608581.37583463</v>
+        <v>1606088.04016511</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>1611197.83712152</v>
+        <v>1616662.89424933</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>1609589.01251997</v>
+        <v>1615305.47937785</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2</v>
@@ -342,16 +342,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>66.9414129257202</v>
+        <v>38.4934339523315</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1607495.05831019</v>
+        <v>1606942.95378297</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>1612433.72675932</v>
+        <v>1614502.22386685</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>1611657.61527002</v>
+        <v>1613122.9039835</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>2</v>
@@ -371,16 +371,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>49.4931778907776</v>
+        <v>41.605740070343</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1610669.63378985</v>
+        <v>1607093.92062064</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1616091.48596254</v>
+        <v>1616108.62956874</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1614584.26644895</v>
+        <v>1614555.48730622</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2</v>
@@ -400,16 +400,16 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>57.3236207962036</v>
+        <v>42.3361558914185</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1606641.26511586</v>
+        <v>1610851.99889969</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>1611932.18959031</v>
+        <v>1613376.38103642</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1610728.29612134</v>
+        <v>1611770.93251675</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2</v>
@@ -429,16 +429,16 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>65.750216960907</v>
+        <v>31.3607828617096</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1611562.16309074</v>
+        <v>1607076.27845794</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1615582.50726077</v>
+        <v>1612088.41129575</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>1614170.13421146</v>
+        <v>1610484.81745066</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2</v>
@@ -458,16 +458,16 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>76.5617978572845</v>
+        <v>29.7667691707611</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1613321.41000485</v>
+        <v>1611614.30445746</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1611581.59339998</v>
+        <v>1613984.90314933</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>1610184.96610988</v>
+        <v>1612552.80610333</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>2</v>
@@ -487,16 +487,16 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>42.1983110904694</v>
+        <v>32.8202748298645</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1606944.8404818</v>
+        <v>1604051.9092504</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1616410.40389346</v>
+        <v>1610994.2153241</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>1614904.81878479</v>
+        <v>1609393.24370731</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>2</v>
@@ -516,16 +516,16 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>233.541165828705</v>
+        <v>53.5053899288178</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1604105.67829343</v>
+        <v>1605114.13547327</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>1607813.67914867</v>
+        <v>1616159.42197616</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>1606246.6192736</v>
+        <v>1614553.98341902</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2</v>
@@ -545,16 +545,16 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>476.006206989288</v>
+        <v>132.070163965225</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1607294.54147864</v>
+        <v>1603793.4254999</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1610119.2959652</v>
+        <v>1607982.17422573</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>1608598.84103099</v>
+        <v>1606483.87350064</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2</v>
@@ -574,16 +574,16 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>120.113870859146</v>
+        <v>59.4483621120453</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1604484.19062046</v>
+        <v>1604194.35212633</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1611115.4471415</v>
+        <v>1613297.79744702</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>1610439.57152085</v>
+        <v>1611725.0708769</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>2</v>
@@ -603,16 +603,16 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>77.5403609275818</v>
+        <v>81.7235639095306</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1604640.82324091</v>
+        <v>1603651.12285218</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1609761.17700142</v>
+        <v>1610568.60085487</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>1608222.66488457</v>
+        <v>1609254.4593097</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>2</v>
@@ -632,16 +632,16 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>404.204368114471</v>
+        <v>104.536816120148</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1603271.25115458</v>
+        <v>1604362.1985054</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>1611330.05844784</v>
+        <v>1611013.14492879</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>1610365.5302289</v>
+        <v>1610019.30504096</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>2</v>
@@ -661,16 +661,16 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>75.0030779838562</v>
+        <v>52.2834417819977</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1608336.18674856</v>
+        <v>1603379.4090309</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1610168.4705004</v>
+        <v>1613556.2568199</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>1608561.5116258</v>
+        <v>1611950.34221059</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>2</v>
@@ -690,16 +690,16 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>140.497294902802</v>
+        <v>448.671241044998</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1605152.30139668</v>
+        <v>1610633.22223844</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>1611466.42927155</v>
+        <v>1609754.22752846</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>1610106.95679685</v>
+        <v>1608354.55229711</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>2</v>
@@ -719,16 +719,16 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>159.552405118942</v>
+        <v>151.048280954361</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1606429.21311192</v>
+        <v>1602282.5055093</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>1611771.84377353</v>
+        <v>1609497.5075529</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>1610360.38919506</v>
+        <v>1608109.22683042</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>2</v>
@@ -748,16 +748,16 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>133.758157968521</v>
+        <v>87.7451450824738</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1605980.63897998</v>
+        <v>1601501.37760153</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>1612945.25114154</v>
+        <v>1612101.24576913</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>1611528.70587757</v>
+        <v>1611402.15787614</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>2</v>
@@ -777,16 +777,16 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>122.423894166946</v>
+        <v>72.9850099086761</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1604151.64302157</v>
+        <v>1602982.44899004</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>1609642.3473973</v>
+        <v>1610640.77593688</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>1609324.10336706</v>
+        <v>1609373.9933913</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>2</v>
@@ -806,16 +806,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>119.025610208511</v>
+        <v>96.776282787323</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1602620.35565494</v>
+        <v>1606232.46032879</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>1609585.76611883</v>
+        <v>1612870.04076497</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1608094.27262706</v>
+        <v>1611279.16688894</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2</v>
@@ -835,16 +835,16 @@
         <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>171.032953977585</v>
+        <v>124.98722410202</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1605897.41044231</v>
+        <v>1604330.41439505</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1608243.0758592</v>
+        <v>1610687.91292705</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>1607252.86593043</v>
+        <v>1609384.01756783</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>2</v>
@@ -864,16 +864,16 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>365.835195064545</v>
+        <v>159.773208141327</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1608277.92746019</v>
+        <v>1602282.12488047</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1608048.55861116</v>
+        <v>1609571.09392612</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>1606441.09449049</v>
+        <v>1608608.70113416</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>2</v>
@@ -893,16 +893,16 @@
         <v>10</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>113.351157188416</v>
+        <v>108.109663963318</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1606328.89377531</v>
+        <v>1602591.90259642</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1611083.2663729</v>
+        <v>1609414.64206996</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>1609504.20838151</v>
+        <v>1608006.99352347</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>2</v>
@@ -922,16 +922,16 @@
         <v>10</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>124.827560901642</v>
+        <v>149.879230976105</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1604157.84648417</v>
+        <v>1601906.3881307</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>1613782.98550326</v>
+        <v>1610139.28955562</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>1612461.82441588</v>
+        <v>1608948.88658469</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>2</v>
@@ -951,16 +951,16 @@
         <v>10</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>109.093979120255</v>
+        <v>153.56784081459</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1606212.54939524</v>
+        <v>1603254.34451796</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>1607835.2578504</v>
+        <v>1611696.1695768</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>1606238.52666915</v>
+        <v>1610613.41195529</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>2</v>
@@ -980,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>121.510287046433</v>
+        <v>168.916432142258</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1607444.19578753</v>
+        <v>1606006.39374744</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>1612028.11039912</v>
+        <v>1610920.25941732</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>1610445.63069742</v>
+        <v>1609583.91231934</v>
       </c>
       <c r="I28" s="0" t="n">
         <v>2</v>
@@ -1009,16 +1009,16 @@
         <v>10</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>156.458834171295</v>
+        <v>149.979606151581</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1605512.09524288</v>
+        <v>1603557.46372093</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1612527.93734074</v>
+        <v>1610551.97743328</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>1611349.88063184</v>
+        <v>1609844.73128769</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>2</v>
@@ -1038,16 +1038,16 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>159.321063041687</v>
+        <v>103.267601013184</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1603694.13347135</v>
+        <v>1601194.93464608</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>1608945.61631597</v>
+        <v>1609511.67006256</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>1608218.66124232</v>
+        <v>1608275.12696623</v>
       </c>
       <c r="I30" s="0" t="n">
         <v>2</v>
@@ -1067,16 +1067,16 @@
         <v>10</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>168.181359052658</v>
+        <v>87.1187391281128</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1603115.43411563</v>
+        <v>1604096.72573551</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>1607369.45461023</v>
+        <v>1607492.43900775</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>1606068.1812036</v>
+        <v>1605889.16566616</v>
       </c>
       <c r="I31" s="0" t="n">
         <v>2</v>
@@ -1096,16 +1096,16 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>165.6696600914</v>
+        <v>141.292241096497</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1604257.43091889</v>
+        <v>1603955.32793572</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>1611076.05796087</v>
+        <v>1611608.52228894</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>1610075.67035041</v>
+        <v>1610173.41156949</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>2</v>
@@ -1125,16 +1125,16 @@
         <v>10</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>157.04278087616</v>
+        <v>115.445213079453</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1606848.52262</v>
+        <v>1604086.66466808</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>1608787.2214964</v>
+        <v>1611260.80711792</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1607401.61732363</v>
+        <v>1609694.49416115</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>2</v>
@@ -1154,16 +1154,16 @@
         <v>10</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>174.567586898804</v>
+        <v>132.648767948151</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1606512.91661026</v>
+        <v>1603921.97687008</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>1610815.25981228</v>
+        <v>1605945.65940749</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>1609224.30140921</v>
+        <v>1604353.99628564</v>
       </c>
       <c r="I34" s="0" t="n">
         <v>2</v>
@@ -1183,16 +1183,16 @@
         <v>10</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>167.871337890625</v>
+        <v>115.81318116188</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1604875.16017801</v>
+        <v>1603520.36825024</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1610366.09023096</v>
+        <v>1609219.08488456</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1609556.15287596</v>
+        <v>1607611.66192615</v>
       </c>
       <c r="I35" s="0" t="n">
         <v>2</v>
@@ -1212,16 +1212,16 @@
         <v>10</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>228.177577018738</v>
+        <v>101.743267059326</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1604550.55592549</v>
+        <v>1603150.02316141</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1614493.81550543</v>
+        <v>1611918.53449463</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>1613246.58670806</v>
+        <v>1610322.75100372</v>
       </c>
       <c r="I36" s="0" t="n">
         <v>2</v>
@@ -1241,16 +1241,16 @@
         <v>10</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>173.037425994873</v>
+        <v>118.930547952652</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1603652.19054968</v>
+        <v>1605023.12413752</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>1607749.28463619</v>
+        <v>1608964.58145652</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>1606974.96725918</v>
+        <v>1607373.87011874</v>
       </c>
       <c r="I37" s="0" t="n">
         <v>2</v>
@@ -1270,16 +1270,16 @@
         <v>10</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>207.71852183342</v>
+        <v>108.23118185997</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1605758.21753607</v>
+        <v>1603823.61031203</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1610575.18861851</v>
+        <v>1608372.73064024</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>1608967.2651162</v>
+        <v>1607676.77929781</v>
       </c>
       <c r="I38" s="0" t="n">
         <v>2</v>
@@ -1299,16 +1299,16 @@
         <v>10</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>180.0649330616</v>
+        <v>102.76428103447</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1604264.51070286</v>
+        <v>1604998.75307215</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>1608823.4922026</v>
+        <v>1610757.52763389</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>1607219.62055883</v>
+        <v>1609405.11370604</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>2</v>
@@ -1328,16 +1328,16 @@
         <v>10</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>250.522019863129</v>
+        <v>129.501931905746</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1604083.41925404</v>
+        <v>1602760.88945852</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1607310.08822281</v>
+        <v>1607112.05670162</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>1606086.53634978</v>
+        <v>1605855.46478542</v>
       </c>
       <c r="I40" s="0" t="n">
         <v>2</v>
@@ -1357,16 +1357,16 @@
         <v>10</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>261.844728946686</v>
+        <v>102.264312982559</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>1602699.4402439</v>
+        <v>1603018.12518147</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1606728.71009618</v>
+        <v>1608834.48676865</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>1605336.76847985</v>
+        <v>1607966.07012268</v>
       </c>
       <c r="I41" s="0" t="n">
         <v>2</v>
@@ -1386,16 +1386,16 @@
         <v>10</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>122.898097038269</v>
+        <v>123.557990074158</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1603225.76155322</v>
+        <v>1604731.81970435</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1610840.28956517</v>
+        <v>1613266.04891222</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>1610381.98184864</v>
+        <v>1611654.49298707</v>
       </c>
       <c r="I42" s="0" t="n">
         <v>2</v>
@@ -1415,16 +1415,16 @@
         <v>10</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>152.757566928864</v>
+        <v>144.574632883072</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1604565.22678883</v>
+        <v>1603794.7078977</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1610788.96409498</v>
+        <v>1610037.31786465</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>1609363.72494126</v>
+        <v>1609019.93921674</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>2</v>
@@ -1444,16 +1444,16 @@
         <v>10</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>118.372297048569</v>
+        <v>144.706341028213</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1607680.20163494</v>
+        <v>1604427.48711971</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>1609987.40352197</v>
+        <v>1611569.44148344</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>1609425.94724081</v>
+        <v>1610786.52097398</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>2</v>
@@ -1473,16 +1473,16 @@
         <v>10</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>156.285448074341</v>
+        <v>144.796856164932</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1604680.61289668</v>
+        <v>1602341.74407239</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>1611473.33322179</v>
+        <v>1609152.76492803</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>1610549.66434205</v>
+        <v>1608552.2282395</v>
       </c>
       <c r="I45" s="0" t="n">
         <v>2</v>
@@ -1502,16 +1502,16 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>118.485068798065</v>
+        <v>144.361674070358</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1606744.33140412</v>
+        <v>1602854.52565614</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1613064.32964356</v>
+        <v>1610935.84352367</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>1612115.1625825</v>
+        <v>1609327.48553633</v>
       </c>
       <c r="I46" s="0" t="n">
         <v>2</v>
@@ -1531,16 +1531,16 @@
         <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>114.573266983032</v>
+        <v>109.779889106751</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1604827.97843179</v>
+        <v>1603486.90262316</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>1612633.63734081</v>
+        <v>1608186.52458764</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>1611025.13692876</v>
+        <v>1607084.98807572</v>
       </c>
       <c r="I47" s="0" t="n">
         <v>2</v>
@@ -1560,16 +1560,16 @@
         <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>173.286216020584</v>
+        <v>151.283531904221</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1603074.55175447</v>
+        <v>1604538.22051</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>1611366.16887015</v>
+        <v>1608084.93663417</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>1610639.64621169</v>
+        <v>1607252.46597763</v>
       </c>
       <c r="I48" s="0" t="n">
         <v>2</v>
@@ -1589,16 +1589,16 @@
         <v>10</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>146.114310026169</v>
+        <v>137.588814020157</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1607096.19385894</v>
+        <v>1604209.76094085</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1609167.11106194</v>
+        <v>1610292.52459162</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>1607922.53366943</v>
+        <v>1609139.44992874</v>
       </c>
       <c r="I49" s="0" t="n">
         <v>2</v>
@@ -1618,16 +1618,16 @@
         <v>10</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>155.899582147598</v>
+        <v>165.387548923492</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1609531.63393827</v>
+        <v>1601455.49102203</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1606607.84344478</v>
+        <v>1610005.82236679</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>1605019.3293459</v>
+        <v>1608953.55910926</v>
       </c>
       <c r="I50" s="0" t="n">
         <v>2</v>
@@ -1647,16 +1647,16 @@
         <v>10</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>127.621769189835</v>
+        <v>119.343904972076</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1603765.82494846</v>
+        <v>1603387.91832677</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1607384.60588378</v>
+        <v>1610292.29444405</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>1606217.70674199</v>
+        <v>1609266.64093806</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>2</v>
@@ -1676,16 +1676,16 @@
         <v>10</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>176.766929149628</v>
+        <v>173.79701089859</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1604139.41303143</v>
+        <v>1603017.33499261</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>1610374.3760775</v>
+        <v>1610627.71164632</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>1609569.69343462</v>
+        <v>1609733.21474077</v>
       </c>
       <c r="I52" s="0" t="n">
         <v>2</v>
@@ -1705,16 +1705,16 @@
         <v>10</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>136.316064834595</v>
+        <v>89.8870048522949</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1603553.36978586</v>
+        <v>1606609.79089475</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>1609464.26489618</v>
+        <v>1611294.36903497</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>1608564.15143381</v>
+        <v>1610146.23166395</v>
       </c>
       <c r="I53" s="0" t="n">
         <v>2</v>
@@ -1734,16 +1734,16 @@
         <v>10</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>142.010674953461</v>
+        <v>129.310148000717</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1606336.31874654</v>
+        <v>1602892.01259659</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>1612139.93967633</v>
+        <v>1611963.08304413</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1611183.59385265</v>
+        <v>1611022.02707276</v>
       </c>
       <c r="I54" s="0" t="n">
         <v>2</v>
@@ -1763,16 +1763,16 @@
         <v>10</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>131.019544839859</v>
+        <v>159.64076089859</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1604390.4285452</v>
+        <v>1603790.30255521</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>1610536.4457373</v>
+        <v>1609404.84141857</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1609825.3234833</v>
+        <v>1607798.57889438</v>
       </c>
       <c r="I55" s="0" t="n">
         <v>2</v>
@@ -1792,16 +1792,16 @@
         <v>10</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>153.37535405159</v>
+        <v>191.830931901932</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1607106.72314475</v>
+        <v>1602128.45687165</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>1612800.35332525</v>
+        <v>1609456.58477117</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>1612487.87666626</v>
+        <v>1608813.4052724</v>
       </c>
       <c r="I56" s="0" t="n">
         <v>2</v>
@@ -1821,16 +1821,16 @@
         <v>10</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>136.424697875977</v>
+        <v>167.799926996231</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1603821.93032054</v>
+        <v>1601852.91566416</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>1612157.96281426</v>
+        <v>1609242.95869756</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>1611314.33517695</v>
+        <v>1607689.61838378</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>2</v>
@@ -1850,16 +1850,16 @@
         <v>10</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>240.310555934906</v>
+        <v>175.673316001892</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1603834.17427203</v>
+        <v>1603251.39648299</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>1612991.15925276</v>
+        <v>1608321.04461181</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>1611541.74001926</v>
+        <v>1606792.72193702</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>2</v>
@@ -1879,16 +1879,16 @@
         <v>10</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>122.438549041748</v>
+        <v>168.132823944092</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>1605792.14169243</v>
+        <v>1603071.05056049</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>1608960.1017895</v>
+        <v>1610859.2061277</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>1607602.73394545</v>
+        <v>1609296.3606741</v>
       </c>
       <c r="I59" s="0" t="n">
         <v>2</v>
@@ -1908,16 +1908,16 @@
         <v>10</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>139.364315032959</v>
+        <v>184.511093139648</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>1606594.33186964</v>
+        <v>1602092.4084186</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>1606188.12777016</v>
+        <v>1609846.01684113</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>1604771.31228296</v>
+        <v>1608430.75804731</v>
       </c>
       <c r="I60" s="0" t="n">
         <v>2</v>
@@ -1937,16 +1937,16 @@
         <v>10</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>153.216445922852</v>
+        <v>146.836816072464</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>1604778.85913351</v>
+        <v>1602371.68191883</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>1608415.91272639</v>
+        <v>1609763.2471793</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>1607620.61984962</v>
+        <v>1609259.63572733</v>
       </c>
       <c r="I61" s="0" t="n">
         <v>2</v>
@@ -1966,16 +1966,16 @@
         <v>10</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>236.386914014816</v>
+        <v>218.512074947357</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>1603858.08811034</v>
+        <v>1603053.80190001</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>1609460.86620603</v>
+        <v>1612097.01290384</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>1608100.87322405</v>
+        <v>1610760.78285384</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>2</v>
@@ -1995,16 +1995,16 @@
         <v>10</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>308.440186977386</v>
+        <v>182.315195083618</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>1604005.04400038</v>
+        <v>1605230.38988761</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>1608720.62321045</v>
+        <v>1611078.18693468</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>1607122.22724013</v>
+        <v>1609485.50543734</v>
       </c>
       <c r="I63" s="0" t="n">
         <v>2</v>
@@ -2024,16 +2024,16 @@
         <v>10</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>240.979615211487</v>
+        <v>163.138767004013</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>1604677.61657478</v>
+        <v>1602533.98584347</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1611137.89365079</v>
+        <v>1608535.01536334</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1609842.56682328</v>
+        <v>1607699.49824843</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>2</v>
@@ -2053,16 +2053,16 @@
         <v>10</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>328.403394937515</v>
+        <v>171.584276199341</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>1603666.71103795</v>
+        <v>1602357.39605968</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>1610732.64624681</v>
+        <v>1610046.56792252</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>1609360.87390669</v>
+        <v>1608871.44474242</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>2</v>
@@ -2082,16 +2082,16 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>321.269572973251</v>
+        <v>201.932487010956</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>1605363.50991106</v>
+        <v>1600619.91926215</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1613527.80159382</v>
+        <v>1607986.7628369</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>1613059.00481888</v>
+        <v>1607733.38466079</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>2</v>
@@ -2111,16 +2111,16 @@
         <v>10</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>249.773236989975</v>
+        <v>153.889472961426</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>1604657.07308808</v>
+        <v>1601552.94645897</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1610957.59962409</v>
+        <v>1607908.46715171</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>1609920.93460814</v>
+        <v>1606893.20576486</v>
       </c>
       <c r="I67" s="0" t="n">
         <v>2</v>
@@ -2140,16 +2140,16 @@
         <v>10</v>
       </c>
       <c r="E68" s="0" t="n">
-        <v>279.205204963684</v>
+        <v>206.390257835388</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>1603480.06674984</v>
+        <v>1605228.57339763</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1611525.67325121</v>
+        <v>1609982.20526243</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1610059.37534375</v>
+        <v>1608640.28677161</v>
       </c>
       <c r="I68" s="0" t="n">
         <v>2</v>
@@ -2169,16 +2169,16 @@
         <v>10</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>225.282800912857</v>
+        <v>208.634706020355</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>1603466.05698525</v>
+        <v>1602167.95770589</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1609023.86706913</v>
+        <v>1609895.22048984</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>1607427.07143064</v>
+        <v>1608686.13825864</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>2</v>
@@ -2198,16 +2198,16 @@
         <v>10</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>275.009217977524</v>
+        <v>195.679383039474</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>1604338.40091569</v>
+        <v>1602481.63302662</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>1607095.5516009</v>
+        <v>1609608.37039807</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>1605501.65638881</v>
+        <v>1608486.36397769</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>2</v>
@@ -2227,16 +2227,16 @@
         <v>10</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>268.724550962448</v>
+        <v>200.407936096191</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>1603632.18413364</v>
+        <v>1602976.35558289</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>1609848.53369506</v>
+        <v>1610053.94293714</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>1608241.76045666</v>
+        <v>1608687.8479821</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>2</v>
@@ -2256,16 +2256,16 @@
         <v>10</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>325.45182299614</v>
+        <v>207.572800159454</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>1603295.88779971</v>
+        <v>1602228.05197215</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1608516.29993078</v>
+        <v>1610160.66503973</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>1607481.66388549</v>
+        <v>1608622.91844526</v>
       </c>
       <c r="I72" s="0" t="n">
         <v>2</v>
@@ -2285,16 +2285,16 @@
         <v>10</v>
       </c>
       <c r="E73" s="0" t="n">
-        <v>265.387530088425</v>
+        <v>294.040812969208</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>1603201.17460407</v>
+        <v>1602268.05602032</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>1608524.61475464</v>
+        <v>1610751.42277623</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>1607831.03340857</v>
+        <v>1609517.17908648</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>2</v>
@@ -2314,16 +2314,16 @@
         <v>10</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>286.126605987549</v>
+        <v>238.366159915924</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>1604242.32690478</v>
+        <v>1601991.08380888</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1610295.298565</v>
+        <v>1610520.28823724</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>1610121.07657816</v>
+        <v>1608915.18171848</v>
       </c>
       <c r="I74" s="0" t="n">
         <v>2</v>
@@ -2343,16 +2343,16 @@
         <v>10</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>298.667979955673</v>
+        <v>251.669098138809</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>1602847.5122277</v>
+        <v>1602575.41555861</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>1609357.81425131</v>
+        <v>1610984.73307432</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>1608860.44219101</v>
+        <v>1610984.73307432</v>
       </c>
       <c r="I75" s="0" t="n">
         <v>2</v>
@@ -2372,16 +2372,16 @@
         <v>10</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>393.009223937988</v>
+        <v>212.153655052185</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>1604954.26122852</v>
+        <v>1601474.7033372</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1614288.40206909</v>
+        <v>1609049.65426159</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>1613335.14971607</v>
+        <v>1607444.6919691</v>
       </c>
       <c r="I76" s="0" t="n">
         <v>2</v>
@@ -2401,16 +2401,16 @@
         <v>10</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>328.323311090469</v>
+        <v>208.472629070282</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>1605143.67857452</v>
+        <v>1602092.82998991</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>1610258.29602446</v>
+        <v>1607335.7759369</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>1609100.2414723</v>
+        <v>1606009.56736148</v>
       </c>
       <c r="I77" s="0" t="n">
         <v>2</v>
@@ -2430,16 +2430,16 @@
         <v>10</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>333.856731891632</v>
+        <v>200.022006988525</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>1603462.60768831</v>
+        <v>1603253.97013759</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1610982.72324211</v>
+        <v>1608799.46849522</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>1609454.14291582</v>
+        <v>1607661.92578604</v>
       </c>
       <c r="I78" s="0" t="n">
         <v>2</v>
@@ -2459,16 +2459,16 @@
         <v>10</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>277.161643028259</v>
+        <v>267.879737854004</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>1601996.28847559</v>
+        <v>1602088.1647406</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>1606978.87882217</v>
+        <v>1609274.28762544</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>1606053.29004943</v>
+        <v>1608124.82729025</v>
       </c>
       <c r="I79" s="0" t="n">
         <v>2</v>
@@ -2488,16 +2488,16 @@
         <v>10</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>303.621138811111</v>
+        <v>243.103445053101</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>1602707.27062397</v>
+        <v>1602736.29042731</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1606999.33149708</v>
+        <v>1611334.8644199</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>1605567.69470944</v>
+        <v>1610311.7440096</v>
       </c>
       <c r="I80" s="0" t="n">
         <v>2</v>
@@ -2517,16 +2517,16 @@
         <v>10</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>315.781407833099</v>
+        <v>191.423483848572</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>1602949.56715322</v>
+        <v>1601705.57436961</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1608076.36045987</v>
+        <v>1611999.89540696</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>1606772.39679064</v>
+        <v>1610936.45859045</v>
       </c>
       <c r="I81" s="0" t="n">
         <v>2</v>
@@ -2546,16 +2546,16 @@
         <v>10</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>372.361034154892</v>
+        <v>308.27867102623</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>1601768.97289959</v>
+        <v>1602073.80802034</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>1610577.28298843</v>
+        <v>1610891.09438217</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>1609001.1275273</v>
+        <v>1609390.66134796</v>
       </c>
       <c r="I82" s="0" t="n">
         <v>2</v>
@@ -2575,16 +2575,16 @@
         <v>10</v>
       </c>
       <c r="E83" s="0" t="n">
-        <v>434.94301199913</v>
+        <v>240.179755926132</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>1605052.61207123</v>
+        <v>1602849.86215897</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>1609983.08122652</v>
+        <v>1610827.02786995</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>1608377.55831939</v>
+        <v>1609840.05196845</v>
       </c>
       <c r="I83" s="0" t="n">
         <v>2</v>
@@ -2604,16 +2604,16 @@
         <v>10</v>
       </c>
       <c r="E84" s="0" t="n">
-        <v>406.888015031815</v>
+        <v>297.720613002777</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>1603450.50707366</v>
+        <v>1601167.53852925</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>1611554.69748099</v>
+        <v>1608550.19867691</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>1610511.33092341</v>
+        <v>1608432.73884874</v>
       </c>
       <c r="I84" s="0" t="n">
         <v>2</v>
@@ -2633,16 +2633,16 @@
         <v>10</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>385.741688013077</v>
+        <v>266.124680995941</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>1602572.51026656</v>
+        <v>1601395.01557618</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1609414.86660489</v>
+        <v>1611916.67018171</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>1608857.32059599</v>
+        <v>1610773.93121761</v>
       </c>
       <c r="I85" s="0" t="n">
         <v>2</v>
@@ -2662,16 +2662,16 @@
         <v>10</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>329.600678920746</v>
+        <v>329.678117990494</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>1603864.88272074</v>
+        <v>1601551.56157911</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1615285.64952625</v>
+        <v>1608508.36035886</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>1613752.29146893</v>
+        <v>1607198.94131787</v>
       </c>
       <c r="I86" s="0" t="n">
         <v>2</v>
@@ -2691,16 +2691,16 @@
         <v>10</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>337.969429969788</v>
+        <v>333.558542013168</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>1603723.98487932</v>
+        <v>1601796.52962484</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>1610386.08998899</v>
+        <v>1607912.79378111</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>1609213.10119385</v>
+        <v>1607039.62725203</v>
       </c>
       <c r="I87" s="0" t="n">
         <v>2</v>
@@ -2720,16 +2720,16 @@
         <v>10</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>378.399962186813</v>
+        <v>258.161092996597</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>1604159.22951339</v>
+        <v>1602082.19392013</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1610160.59843563</v>
+        <v>1607416.08324011</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>1609086.22212413</v>
+        <v>1607168.93182577</v>
       </c>
       <c r="I88" s="0" t="n">
         <v>2</v>
@@ -2749,16 +2749,16 @@
         <v>10</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>328.560389041901</v>
+        <v>254.137983798981</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>1603482.70844628</v>
+        <v>1602442.12436434</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>1607830.36447357</v>
+        <v>1608634.50668222</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>1607006.13479397</v>
+        <v>1607898.17648796</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>2</v>
@@ -2778,16 +2778,16 @@
         <v>10</v>
       </c>
       <c r="E90" s="0" t="n">
-        <v>374.718667030334</v>
+        <v>263.330025911331</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>1602853.50843537</v>
+        <v>1602088.31524659</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>1606863.79924621</v>
+        <v>1610645.337144</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>1605704.7151625</v>
+        <v>1609441.4466832</v>
       </c>
       <c r="I90" s="0" t="n">
         <v>2</v>
@@ -2807,16 +2807,16 @@
         <v>10</v>
       </c>
       <c r="E91" s="0" t="n">
-        <v>294.730783939362</v>
+        <v>270.872106075287</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>1603187.15171709</v>
+        <v>1601353.51399136</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1609118.61235265</v>
+        <v>1611104.29535291</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1607617.69345763</v>
+        <v>1610306.87590559</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>2</v>
@@ -2836,16 +2836,16 @@
         <v>10</v>
       </c>
       <c r="E92" s="0" t="n">
-        <v>324.31195807457</v>
+        <v>250.94527888298</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>1604164.40379857</v>
+        <v>1602459.62609231</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>1608038.98930823</v>
+        <v>1610249.79016318</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>1607100.30406214</v>
+        <v>1609362.55890884</v>
       </c>
       <c r="I92" s="0" t="n">
         <v>2</v>
@@ -2865,16 +2865,16 @@
         <v>10</v>
       </c>
       <c r="E93" s="0" t="n">
-        <v>396.389892101288</v>
+        <v>313.575229167938</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>1602987.22253808</v>
+        <v>1601851.0455556</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>1609046.05205737</v>
+        <v>1611600.88892414</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>1608160.63555528</v>
+        <v>1610186.353026</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>2</v>
@@ -2894,16 +2894,16 @@
         <v>10</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>413.051800966263</v>
+        <v>256.994812011719</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>1603835.2522378</v>
+        <v>1602646.94577918</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>1610265.21643095</v>
+        <v>1610616.83619585</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>1610127.29491288</v>
+        <v>1609009.27062449</v>
       </c>
       <c r="I94" s="0" t="n">
         <v>2</v>
@@ -2923,16 +2923,16 @@
         <v>10</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>393.22713804245</v>
+        <v>254.189507961273</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>1603910.45241648</v>
+        <v>1601492.45124097</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>1610064.92550926</v>
+        <v>1611448.97756973</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>1609177.85772817</v>
+        <v>1610892.91260367</v>
       </c>
       <c r="I95" s="0" t="n">
         <v>2</v>
@@ -2952,16 +2952,16 @@
         <v>10</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>437.308439016342</v>
+        <v>250.662873029709</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>1604488.630624</v>
+        <v>1601499.69770049</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>1613241.60530076</v>
+        <v>1607812.54001927</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>1612656.10202076</v>
+        <v>1606666.23237141</v>
       </c>
       <c r="I96" s="0" t="n">
         <v>2</v>
@@ -2981,16 +2981,16 @@
         <v>10</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>446.474754810333</v>
+        <v>251.53906583786</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>1603564.28931407</v>
+        <v>1603007.68291409</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>1608776.05547813</v>
+        <v>1607222.9198331</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>1607218.22035616</v>
+        <v>1605758.00271916</v>
       </c>
       <c r="I97" s="0" t="n">
         <v>2</v>
@@ -3010,16 +3010,16 @@
         <v>10</v>
       </c>
       <c r="E98" s="0" t="n">
-        <v>465.537277936936</v>
+        <v>266.027142047882</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>1603217.84947651</v>
+        <v>1602740.05024869</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>1610525.87367858</v>
+        <v>1607541.44802307</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>1609146.61801112</v>
+        <v>1606735.86232371</v>
       </c>
       <c r="I98" s="0" t="n">
         <v>2</v>
@@ -3039,16 +3039,16 @@
         <v>10</v>
       </c>
       <c r="E99" s="0" t="n">
-        <v>391.473477840424</v>
+        <v>260.339957952499</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>1603883.07450346</v>
+        <v>1602058.81309984</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>1608808.44103452</v>
+        <v>1608130.73140178</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>1607230.67196598</v>
+        <v>1607748.63303093</v>
       </c>
       <c r="I99" s="0" t="n">
         <v>2</v>
@@ -3068,16 +3068,16 @@
         <v>10</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>369.794975042343</v>
+        <v>387.21554684639</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>1602712.56855829</v>
+        <v>1601868.89336188</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1606070.15665338</v>
+        <v>1611199.63197116</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>1604974.15278656</v>
+        <v>1609590.56151022</v>
       </c>
       <c r="I100" s="0" t="n">
         <v>2</v>
@@ -3097,16 +3097,16 @@
         <v>10</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>385.719349861145</v>
+        <v>227.140434026718</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>1602956.41293735</v>
+        <v>1601555.83530705</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>1609434.07087206</v>
+        <v>1610803.46099093</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>1608234.42169999</v>
+        <v>1609877.7791277</v>
       </c>
       <c r="I101" s="0" t="n">
         <v>2</v>
